--- a/NH_HealthCost_data/73721 MRI - Knee (outpatient).xlsx
+++ b/NH_HealthCost_data/73721 MRI - Knee (outpatient).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/Thesis_Hospital_Costs/NH_HealthCost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0CB08F-CCED-E34C-821F-AAB3C5651E63}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27037167-2FFF-854D-8849-DF1C9E909F98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="4" xr2:uid="{7BAB3727-29CA-3B44-8F48-738B3F1CD73C}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="3" xr2:uid="{7BAB3727-29CA-3B44-8F48-738B3F1CD73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Anthem - NH" sheetId="1" r:id="rId1"/>
@@ -12253,14 +12253,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AECB65-03AE-544F-8277-6D80D052B8E6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="97.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -12470,7 +12470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3371CA-19CF-A948-B3C3-A52D16310184}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>

--- a/NH_HealthCost_data/73721 MRI - Knee (outpatient).xlsx
+++ b/NH_HealthCost_data/73721 MRI - Knee (outpatient).xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/Thesis_Hospital_Costs/NH_HealthCost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27037167-2FFF-854D-8849-DF1C9E909F98}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E49D97-D351-C94E-BAF5-ABED42474F8E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="3" xr2:uid="{7BAB3727-29CA-3B44-8F48-738B3F1CD73C}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{7BAB3727-29CA-3B44-8F48-738B3F1CD73C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anthem - NH" sheetId="1" r:id="rId1"/>
+    <sheet name="Anthem NH" sheetId="1" r:id="rId1"/>
     <sheet name="CIGNA" sheetId="2" r:id="rId2"/>
     <sheet name="Harvard Pilgrim HC" sheetId="3" r:id="rId3"/>
     <sheet name="Other" sheetId="4" r:id="rId4"/>
@@ -11002,8 +11002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F6F044-C4EF-E542-807A-51DB0EDF7799}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12253,7 +12253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AECB65-03AE-544F-8277-6D80D052B8E6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
